--- a/Advanced Excel Functions.xlsx
+++ b/Advanced Excel Functions.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AB9D95-71E4-48B5-A58D-AF16CA37BBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983DD8A6-BB19-4790-8F0A-CD8AEEE46D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Category">Sheet1!$H$2:$H$6</definedName>
-    <definedName name="Profit">Sheet1!$K$2:$K$6</definedName>
-    <definedName name="Region">Sheet1!$I$2:$I$6</definedName>
-    <definedName name="Sales">Sheet1!$L$2:$L$6</definedName>
-    <definedName name="Sub_category">Sheet1!$J$2:$J$6</definedName>
+    <definedName name="Categories">Sheet1!$D$10:$D$12</definedName>
+    <definedName name="Category">Sheet1!$D$2:$D$6</definedName>
+    <definedName name="Channel">Sheet1!$E$16:$E$21</definedName>
+    <definedName name="Months">Sheet1!$E$9:$G$9</definedName>
+    <definedName name="New_Months">Sheet1!$F$33:$H$33</definedName>
+    <definedName name="Ownership">Sheet1!$D$16:$D$21</definedName>
+    <definedName name="Profit">Sheet1!$G$2:$G$6</definedName>
+    <definedName name="Profitss">Sheet1!$G$16:$G$21</definedName>
+    <definedName name="Region">Sheet1!$E$2:$E$6</definedName>
+    <definedName name="Sale">Sheet1!$E$10:$G$12</definedName>
+    <definedName name="Sales">Sheet1!$H$2:$H$6</definedName>
+    <definedName name="Salesss">Sheet1!$F$16:$F$21</definedName>
+    <definedName name="Sub_category">Sheet1!$F$2:$F$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>XLOOKUP</t>
   </si>
@@ -153,18 +162,160 @@
     <t>Test MATCH</t>
   </si>
   <si>
-    <t>MATCH(5611, Profit,0)</t>
-  </si>
-  <si>
-    <t>(Row 3)</t>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>rows array = Categories</t>
+  </si>
+  <si>
+    <t>column array = Months</t>
+  </si>
+  <si>
+    <t>Combine INDEX and MATCH</t>
+  </si>
+  <si>
+    <t>INDEX(array, MATCH(rows), MATCH(columns)</t>
+  </si>
+  <si>
+    <t>Test Combine INDEX and MATCH</t>
+  </si>
+  <si>
+    <t>array = Sale</t>
+  </si>
+  <si>
+    <t>INDEX(Sale,MATCH("Labels",Categories,0),MATCH("APR",Months,0))</t>
+  </si>
+  <si>
+    <t>Sale value Labels in April</t>
+  </si>
+  <si>
+    <t>ShortCuts</t>
+  </si>
+  <si>
+    <t>Lock Cells $</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Amma</t>
+  </si>
+  <si>
+    <t>Appa</t>
+  </si>
+  <si>
+    <t>Akka</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Ammamma</t>
+  </si>
+  <si>
+    <t>Appappa</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Profitss</t>
+  </si>
+  <si>
+    <t>Salesss</t>
+  </si>
+  <si>
+    <t>Salesss-VLOOKUP</t>
+  </si>
+  <si>
+    <t>Ownership-XLOOKUP</t>
+  </si>
+  <si>
+    <t>Franchise</t>
+  </si>
+  <si>
+    <t>Petrol Station</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>MATCH("Labels", Categories,0) - Row</t>
+  </si>
+  <si>
+    <t>MATCH("MAY", MOnths,0) - Column</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Amount - INDEX and MATCH</t>
+  </si>
+  <si>
+    <t>Select range - Type Name</t>
+  </si>
+  <si>
+    <t>Remember to lock references</t>
+  </si>
+  <si>
+    <t>OFFSET</t>
+  </si>
+  <si>
+    <t>(reference, rows, columns, [height], [width])</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>OFFSET(D34, 1,4)</t>
+  </si>
+  <si>
+    <t>Combine OFFSET and MATCH</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Profit of Month (DropDown) = OFFSET (D34, 1, MATCH(D35, Months,0))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;£&quot;#,##0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -191,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +361,56 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -287,85 +486,48 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -378,18 +540,141 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18635962-0F2E-478D-B165-D0CEB1AADE61}" name="Test" displayName="Test" ref="H1:L6" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
-  <autoFilter ref="H1:L6" xr:uid="{18635962-0F2E-478D-B165-D0CEB1AADE61}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D349F079-C92B-48AA-ADEC-6799EA502853}" name="Category"/>
-    <tableColumn id="2" xr3:uid="{0E4BC788-15F6-42AB-9315-7F806F818F68}" name="Region "/>
-    <tableColumn id="3" xr3:uid="{0FCADC64-2E95-4AFD-943C-216C91C5B74A}" name="Sub-category"/>
-    <tableColumn id="4" xr3:uid="{812B2545-446C-4D12-8468-57559D61A875}" name="Profit"/>
-    <tableColumn id="5" xr3:uid="{A29D8DCF-97B5-4C63-B41A-372D106223DB}" name="Sales"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>505194</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8B128B-3779-BEA4-E9EB-ABF22FEFA3C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12372974" y="4181475"/>
+          <a:ext cx="4277095" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>425876</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE1A852-3A02-E954-396E-5BBDE49A0D21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="5705475"/>
+          <a:ext cx="4150151" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>155332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296F18D9-C9D9-6EB1-5E3F-A644250BA06A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="2314575"/>
+          <a:ext cx="5076825" cy="1079257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,214 +940,651 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5678</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8">
+        <v>241</v>
+      </c>
+      <c r="H3" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="6">
-        <v>5678</v>
-      </c>
-      <c r="L2" s="7">
-        <v>5678</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5611</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1">
+      <c r="B5" s="1">
         <f>_xlfn.XLOOKUP("Appliances", Sub_category,Profit)</f>
         <v>241</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="10">
+      <c r="C5" s="1"/>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="8">
+        <v>822</v>
+      </c>
+      <c r="H5" s="9">
+        <v>27118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="17">
+        <v>200</v>
+      </c>
+      <c r="H6" s="18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2114</v>
+      </c>
+      <c r="F10" s="25">
+        <v>4085</v>
+      </c>
+      <c r="G10" s="25">
+        <v>5678</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <f>INDEX(Sale,MATCH(I10,Categories,0),MATCH(J10,Months,0))</f>
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="str">
+        <f>INDEX(D2:H5,2,2)</f>
+        <v>West</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1456</v>
+      </c>
+      <c r="F11" s="27">
+        <v>4273</v>
+      </c>
+      <c r="G11" s="25">
         <v>241</v>
       </c>
-      <c r="L3" s="11">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <f>INDEX(Sale,MATCH(I11,Categories,0),MATCH(J11,Months,0))</f>
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="25">
+        <v>896</v>
+      </c>
+      <c r="F12" s="25">
+        <v>3678</v>
+      </c>
+      <c r="G12" s="25">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <f>F16*5%</f>
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <f>VLOOKUP(I16,$E$16:$F$21,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="K16" t="str">
+        <f>_xlfn.XLOOKUP(I16,Channel,Ownership)</f>
+        <v>Amma</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <v>150</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G21" si="0">F17*5%</f>
+        <v>7.5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J21" si="1">VLOOKUP(I17,$E$16:$F$21,2,FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="K17" t="str">
+        <f>_xlfn.XLOOKUP(I17,Channel,Ownership)</f>
+        <v>Appa</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="K18" t="str">
+        <f>_xlfn.XLOOKUP(I18,Channel,Ownership)</f>
+        <v>Akka</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19">
+        <v>250</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="K19" t="str">
+        <f>_xlfn.XLOOKUP(I19,Channel,Ownership)</f>
+        <v>Anna</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="6">
-        <v>5611</v>
-      </c>
-      <c r="L4" s="7">
-        <v>3113</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="12">
-        <v>822</v>
-      </c>
-      <c r="L5" s="13">
-        <v>27118</v>
-      </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" t="str">
-        <f>INDEX(H2:L5,2,2)</f>
-        <v>West</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1">
-        <v>200</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="K20" t="str">
+        <f>_xlfn.XLOOKUP(I20,Channel,Ownership)</f>
+        <v>Ammamma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21">
+        <v>350</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="K21" t="str">
+        <f>_xlfn.XLOOKUP(I21,Channel,Ownership)</f>
+        <v>Appappa</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24">
+        <f>MATCH("Labels", Categories,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25">
+        <f>MATCH("MAY", Months,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="20">
+        <f>INDEX(Sale,MATCH("Labels",Categories,0),MATCH("APR",Months,0))</f>
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="30">
+        <v>1</v>
+      </c>
+      <c r="G34" s="30">
+        <v>3</v>
+      </c>
+      <c r="H34" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35">
+        <f ca="1">OFFSET(D34, 1,4)</f>
+        <v>6</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="30">
+        <v>2</v>
+      </c>
+      <c r="G35" s="30">
+        <v>4</v>
+      </c>
+      <c r="H35" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38">
+        <f ca="1">OFFSET(D34,1, 1+MATCH(D35,New_Months,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35" xr:uid="{A5C5ABAC-8D3C-4641-AAD2-8B65F634F946}">
+      <formula1>New_Months</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7366A0C4-63BB-47AC-B2B8-25B28C6B1A06}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8">
-        <f>MATCH(5611, Profit,0)</f>
-        <v>3</v>
-      </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>34</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Advanced Excel Functions.xlsx
+++ b/Advanced Excel Functions.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS05N02\home0$\NirmJ\Profile\Desktop\Talent Academy\Course Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983DD8A6-BB19-4790-8F0A-CD8AEEE46D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7FCC9F-363D-495F-A653-2440C19FD7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="2310" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Advanced Functions" sheetId="1" r:id="rId1"/>
+    <sheet name="DataBase Functions" sheetId="3" r:id="rId2"/>
+    <sheet name="Notes" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Categories">Sheet1!$D$10:$D$12</definedName>
-    <definedName name="Category">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="Channel">Sheet1!$E$16:$E$21</definedName>
-    <definedName name="Months">Sheet1!$E$9:$G$9</definedName>
-    <definedName name="New_Months">Sheet1!$F$33:$H$33</definedName>
-    <definedName name="Ownership">Sheet1!$D$16:$D$21</definedName>
-    <definedName name="Profit">Sheet1!$G$2:$G$6</definedName>
-    <definedName name="Profitss">Sheet1!$G$16:$G$21</definedName>
-    <definedName name="Region">Sheet1!$E$2:$E$6</definedName>
-    <definedName name="Sale">Sheet1!$E$10:$G$12</definedName>
-    <definedName name="Sales">Sheet1!$H$2:$H$6</definedName>
-    <definedName name="Salesss">Sheet1!$F$16:$F$21</definedName>
-    <definedName name="Sub_category">Sheet1!$F$2:$F$6</definedName>
+    <definedName name="Categories">'Advanced Functions'!$D$10:$D$12</definedName>
+    <definedName name="Category">'Advanced Functions'!$D$2:$D$6</definedName>
+    <definedName name="Channel">'Advanced Functions'!$E$16:$E$21</definedName>
+    <definedName name="Months">'Advanced Functions'!$E$9:$G$9</definedName>
+    <definedName name="New_Months">'Advanced Functions'!$F$33:$H$33</definedName>
+    <definedName name="Ownership">'Advanced Functions'!$D$16:$D$21</definedName>
+    <definedName name="Profit">'Advanced Functions'!$G$2:$G$6</definedName>
+    <definedName name="Profitss">'Advanced Functions'!$G$16:$G$21</definedName>
+    <definedName name="Region">'Advanced Functions'!$E$2:$E$6</definedName>
+    <definedName name="Sale">'Advanced Functions'!$E$10:$G$12</definedName>
+    <definedName name="Sales">'Advanced Functions'!$H$2:$H$6</definedName>
+    <definedName name="Salesss">'Advanced Functions'!$F$16:$F$21</definedName>
+    <definedName name="Sub_category">'Advanced Functions'!$F$2:$F$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
   <si>
     <t>XLOOKUP</t>
   </si>
@@ -307,6 +308,63 @@
   </si>
   <si>
     <t>Profit of Month (DropDown) = OFFSET (D34, 1, MATCH(D35, Months,0))</t>
+  </si>
+  <si>
+    <t>IF(ISBLANK(C6),"",C6)</t>
+  </si>
+  <si>
+    <t>IFERROR(INDEX(C15:E62,MATCH(C8,B15:B62,0),MATCH(B9,C14:E14,0)),"")</t>
+  </si>
+  <si>
+    <t>ISBLANK</t>
+  </si>
+  <si>
+    <t>IFERROR</t>
+  </si>
+  <si>
+    <t>DataBase Functions</t>
+  </si>
+  <si>
+    <t>DSUM</t>
+  </si>
+  <si>
+    <t>DCOUNT</t>
+  </si>
+  <si>
+    <t>DAVERAGE</t>
+  </si>
+  <si>
+    <t>DMIN</t>
+  </si>
+  <si>
+    <t>DMAX</t>
+  </si>
+  <si>
+    <t>(database, field, criteria)</t>
+  </si>
+  <si>
+    <t>Syntax</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>what we want to calculate</t>
+  </si>
+  <si>
+    <t>data table incl. headers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND/OR conditions, incl. math operators &gt;, &lt;, &lt; &gt; and wildcards *, ? </t>
+  </si>
+  <si>
+    <t>Explanation</t>
   </si>
 </sst>
 </file>
@@ -315,7 +373,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -511,7 +569,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -942,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1312,7 @@
         <v>100</v>
       </c>
       <c r="K16" t="str">
-        <f>_xlfn.XLOOKUP(I16,Channel,Ownership)</f>
+        <f t="shared" ref="K16:K21" si="0">_xlfn.XLOOKUP(I16,Channel,Ownership)</f>
         <v>Amma</v>
       </c>
     </row>
@@ -1269,18 +1327,18 @@
         <v>150</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G21" si="0">F17*5%</f>
+        <f t="shared" ref="G17:G21" si="1">F17*5%</f>
         <v>7.5</v>
       </c>
       <c r="I17" t="s">
         <v>63</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17:J21" si="1">VLOOKUP(I17,$E$16:$F$21,2,FALSE)</f>
+        <f t="shared" ref="J17:J21" si="2">VLOOKUP(I17,$E$16:$F$21,2,FALSE)</f>
         <v>150</v>
       </c>
       <c r="K17" t="str">
-        <f>_xlfn.XLOOKUP(I17,Channel,Ownership)</f>
+        <f t="shared" si="0"/>
         <v>Appa</v>
       </c>
     </row>
@@ -1295,18 +1353,18 @@
         <v>200</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I18" t="s">
         <v>68</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K18" t="str">
-        <f>_xlfn.XLOOKUP(I18,Channel,Ownership)</f>
+        <f t="shared" si="0"/>
         <v>Akka</v>
       </c>
     </row>
@@ -1324,18 +1382,18 @@
         <v>250</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="I19" t="s">
         <v>69</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K19" t="str">
-        <f>_xlfn.XLOOKUP(I19,Channel,Ownership)</f>
+        <f t="shared" si="0"/>
         <v>Anna</v>
       </c>
     </row>
@@ -1353,18 +1411,18 @@
         <v>300</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I20" t="s">
         <v>70</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="K20" t="str">
-        <f>_xlfn.XLOOKUP(I20,Channel,Ownership)</f>
+        <f t="shared" si="0"/>
         <v>Ammamma</v>
       </c>
     </row>
@@ -1382,18 +1440,18 @@
         <v>350</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="I21" t="s">
         <v>71</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>350</v>
       </c>
       <c r="K21" t="str">
-        <f>_xlfn.XLOOKUP(I21,Channel,Ownership)</f>
+        <f t="shared" si="0"/>
         <v>Appappa</v>
       </c>
     </row>
@@ -1544,16 +1602,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F18023C-19AA-4CA2-8142-9693C3828CB7}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7366A0C4-63BB-47AC-B2B8-25B28C6B1A06}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1702,7 @@
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1582,6 +1719,22 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
